--- a/Assets/QuickSheet/Example/Excel/Example.xlsx
+++ b/Assets/QuickSheet/Example/Excel/Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BlueRepository\Assets\QuickSheet\Example\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program files\BLUE\Assets\QuickSheet\Example\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01A9B66-4BD3-423F-A1F9-88EEE159B5FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCB701A-62FF-4A7C-8DF2-8C08041521A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelExample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,19 +43,1884 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>튜토리얼입니다</t>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뻑뻑한 스위치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>표면이 이상하게 끈적거리는 전자동 스위치.
+손에 닿으면 뭐라도 묻어나올 것 같지만, 먼지가 쌓여 있어 의외로 괜찮을 것 같다.
+뻑뻑해서 한 번 작동이 한계일지도 모른다. 작동하시겠습니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇㅇ</t>
+    <t xml:space="preserve">(작동하기) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄱㄴㄷㄹ</t>
+    <t xml:space="preserve"> (그만두기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트</t>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내가 누워있던 수술대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>반쯤 꺾인 수술대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누군가 누워있었던 듯 쌓인 먼지 더미 위로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람 그림자 모양이 찍혀 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두껍게 쌓인 먼지 아래로 희미한 물체가 보인다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먼지를 털어낸다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>너덜너덜한 바코드지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>품번: 2052.12.21.
+	품명: 강화탄소재대거 1P (자동칼날 포함)
+	재질: 탱크용 강화탄소재 FU1 외
+	원산지: 러시아 
+	제조 및 판매원: ㈜킬러웨폰 클라마리 N90°
+	사용방법: 칼날이 부러졌을시, 칼날이 자동교체될때까지(약 0.1초) 기다리십시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>녹이 슨 책상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>평범한 강철소재의 책상. 녹이 슬어서 끄트머리가 붉게 변색되어 있다.
+이상한 서류들이 뒤죽박죽 섞여 흐트러져 있다. 어떤 것은 책상 밑에 떨어져 있다.
+모아서 확인하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서류를 정리한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연구소 안드로이드 사용설명서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">내가 이 짓을 한지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년이나 지났는데 이제 겨우 들어온 신입 녀석이 뭘 알겠다고 설치는지 모르겠다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘 들어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Mr. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말렉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">너도 잘 알테지만 연구소는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개의 층으로 구성되어 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지하로 갈수록 파고드는 구조지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사사건건 은밀함이 컨셉인 우리 초대 연구실장님께서 설계한거니 나한테 묻지 말도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">아무튼 지하 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>층의 실험실을 제외하고 모든 복도에는 우리의 귀여운 안드로이드들이 배치되어 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밖의 무서운 킬러로봇들과 다르게 얘네가 할 줄 아는건 사실 별 거 없어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그냥 적당히 사람을 따라다니지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라다니다가 네가 만약 목이 마르다 싶으면 물 한잔 건네주고…뭐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이것뿐이야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아주 간단한 기능이니 신입 초짜인 너는 곧 이녀석들 정비 프로그래밍에 동원될거야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그러니 친하게 지내란 말이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>얼빵한 네가 나를 또 귀찮게 할까봐 걱정이지만 어쩔 수 없네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오랜만에 들어온 사수니까 예의와 정성을 다하는 수밖에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안드로이드가 너를 정확히 따라다니는지 확인하고 싶으면 녀석들의 배에 있는 화면을 보면 된다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>왜 뚱한 표정이냐고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그야 웃는 것보다 더 귀엽잖아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>…생략…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>천장 구석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>통통한 거미집이 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거미는 보이지 않는다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꺼져 있는 모니터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">사의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델 컴퓨터 본체와 부속품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전원 버튼이 도드라진다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눌러볼까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아니오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>읽다 만 책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전원이 들어오지 않는다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변색된 보드판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>싸구려 합성목재로 만들어진 보드판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>핀촉을 꼽아 메모지를 고정하는 용도로 쓰인 것 같다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연필로 쓰여져 반쯤 알아보기 힘든 메모들과 사진들이 걸려 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인하시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>북극항로 표시사진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>회잿빛 지구 그림 위로 빙하면적이 거의 없는 북극과 구름으로 뒤덮인 남극이 점선으로 빼곡이 이어져 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가운데 진한 중심선에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유라시아 북극항로 개척지점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이라고 쓰여 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미세먼지 입자 연구현황 사진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">사진 끝 부분에 누군가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미세먼지 입자 연구현황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2051.04.13.’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이라고 써놓았다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른 필체의 낙서가 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초미세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 319, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.’</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타워개발현황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>신문 기사 일부를 스크랩해 보관한 것 같다.
+	‘한때 수없이 많이 이어진 다툼과 파괴행위에서도 온전한 형태를 유지하고 있는 인간의 건물에 새로운 안개제거장치를 설치한다는 속보입니다. 인류의 사활이 달린 마지막 기회라고 할 수 있는 이 영광스러운 업무를 맡은 칼림데 말레스크로쟈 박사는 60여년간 오염된 대기를 정화하기 위한 연구를 지속해온 권위자입니다. 그는 과연 이 기회로 우리의 세계 속에서 삭막한 대기를 몰아낼 수 있을까요? 전 중화인민공화국 군용 안드로이드 제조설립법인 ㈜샨샤의 대표이사 씬 샨샤룽은 인터뷰에서 그의 과업에 자신만만하게 유감을 표했습니다. “지금까지 이 끔찍한 안개를 제거하기 위해 인류가 희생한 자본과 생명은 얼마나 됩니까. 이번이 마지막입니다. 이 과업이 실패하게 되면 우리는 다시는 돌이킬 수 없게 됩니다. 그가 부디 알아주었으면 좋겠군요. 위험성이 큰 안개제거장치가 아니라 다른 방도를 찾아야지만 인류는 다시 부흥할 수 있습니다.” (…생략…).’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텅 빈 책장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>누군가 급하게 비운 듯한 책장이다. 책에 쓸린 자국 그대로 먼지가 쌓여 있다.
+녹이 슬만한 재질이 아닌데 검붉은 액체가 말라붙어 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>곰팡이가 핀 캐비닛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>얼룩덜룩한 곰팡이가 잔뜩 피어 있는 초라한 캐비닛이다. 
+뻑뻑하지만 힘을 주면 강제로 열 수 있을 것 같다. 안을 살펴보시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안을 살펴본다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>강제로 힘을 주어 문을 열자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문짝이 이상하리만치 쉽게 떨어져 나갔다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐비닛 안에는 검붉은 얼룩이 있는 낡은 흰 연구원 옷자락 몇 개와 반쯤 찢어지고 구겨진 종잇조각들이 흩어져 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종잇조각들을 이어붙이시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>유토피아란 무엇인가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술의 발달로 우리는 이 영광을 찾아낼 수 있는가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로운 산업시대가 도래했고 인류는 새로운 역사를 써내려 갈 것이라 믿었다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">우리는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">제 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세대 전쟁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이 다시 일어나지 않도록 주의해야 한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하지만 더 이상 이런 학자들의 경고가 의미 있을까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우리의 희미한 목소리를 들어줄 사람은 이제 남아 있지 않은데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>누군가 읽다가 펼쳐놓은 책이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책의 주인은 엉성한 사람이었는지 책등과 쪽마다 드문드문 갈색의 얼룩이 말라붙었다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책의 자세한 내용을 읽으시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>[내 마지막 희망, 나의 아들, 나의 □□ 페리에게, □□□□□ 및 필요한 것]
+-간단한 이동 □□□□□ □□ : ←↑↓→, SPACE
+		-뛰어난 기동성, 낡은 벽을 안전히 이동 가능 개코부츠
+		-교체와 보관이 쉬운 탄창, 탄창 □□□ : F, 1, 2, 3, 4
+		-날카로운 대거, 공격용 □□□ : Z
+		-뛰어난 기동성, 낡은 벽을 안전히 이동 가능 개코부츠
+		-교체와 보관이 쉬운 탄창, 탄창 □□□ : F, 1, 2, 3, 4
+		-날카로운 대거, 공격용 □□□ : Z
+		(…생략…)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +1928,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +1938,37 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="한컴바탕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="한컴바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -99,8 +1995,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -415,15 +2329,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,23 +2351,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -461,7 +2375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -469,35 +2383,301 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="174" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="330" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="63" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="102" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="39" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="222" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="222" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="39" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="154.5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="270" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="196.5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/QuickSheet/Example/Excel/Example.xlsx
+++ b/Assets/QuickSheet/Example/Excel/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program files\BLUE\Assets\QuickSheet\Example\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCB701A-62FF-4A7C-8DF2-8C08041521A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE67D4B-9BBC-46C5-AF7C-9B737647DECA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelExample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1043,32 +1043,6 @@
   </si>
   <si>
     <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>읽다 만 책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
@@ -1914,13 +1888,45 @@
   <si>
     <t>[내 마지막 희망, 나의 아들, 나의 □□ 페리에게, □□□□□ 및 필요한 것]
 -간단한 이동 □□□□□ □□ : ←↑↓→, SPACE
-		-뛰어난 기동성, 낡은 벽을 안전히 이동 가능 개코부츠
-		-교체와 보관이 쉬운 탄창, 탄창 □□□ : F, 1, 2, 3, 4
-		-날카로운 대거, 공격용 □□□ : Z
-		-뛰어난 기동성, 낡은 벽을 안전히 이동 가능 개코부츠
+		-뛰어난 기동성, 낡은 벽을 안전히 이동 가능  개코부츠
 		-교체와 보관이 쉬운 탄창, 탄창 □□□ : F, 1, 2, 3, 4
 		-날카로운 대거, 공격용 □□□ : Z
 		(…생략…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>읽다 만 책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[구겨진 쪽지]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2331,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2516,7 +2522,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.3">
@@ -2524,7 +2530,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
@@ -2532,7 +2538,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.3">
@@ -2540,7 +2546,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="222" x14ac:dyDescent="0.3">
@@ -2548,7 +2554,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.3">
@@ -2556,7 +2562,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="222" x14ac:dyDescent="0.3">
@@ -2564,7 +2570,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="39" x14ac:dyDescent="0.3">
@@ -2572,7 +2578,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="154.5" x14ac:dyDescent="0.3">
@@ -2580,7 +2586,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.3">
@@ -2588,7 +2594,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
@@ -2596,7 +2602,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -2604,7 +2610,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
@@ -2612,7 +2618,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -2620,7 +2626,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
@@ -2628,7 +2634,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -2636,7 +2642,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="270" x14ac:dyDescent="0.3">
@@ -2644,15 +2650,15 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="336" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="196.5" x14ac:dyDescent="0.3">
@@ -2660,14 +2666,26 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">

--- a/Assets/QuickSheet/Example/Excel/Example.xlsx
+++ b/Assets/QuickSheet/Example/Excel/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program files\BLUE\Assets\QuickSheet\Example\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE67D4B-9BBC-46C5-AF7C-9B737647DECA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98951E-AF27-4318-9263-BB15CCC79AFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelExample" sheetId="1" r:id="rId1"/>
@@ -334,469 +334,196 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">내가 이 짓을 한지 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>년이나 지났는데 이제 겨우 들어온 신입 녀석이 뭘 알겠다고 설치는지 모르겠다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잘 들어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Mr. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>말렉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">너도 잘 알테지만 연구소는 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개의 층으로 구성되어 있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지하로 갈수록 파고드는 구조지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사사건건 은밀함이 컨셉인 우리 초대 연구실장님께서 설계한거니 나한테 묻지 말도록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">아무튼 지하 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>층의 실험실을 제외하고 모든 복도에는 우리의 귀여운 안드로이드들이 배치되어 있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>밖의 무서운 킬러로봇들과 다르게 얘네가 할 줄 아는건 사실 별 거 없어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그냥 적당히 사람을 따라다니지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라다니다가 네가 만약 목이 마르다 싶으면 물 한잔 건네주고…뭐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이것뿐이야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아주 간단한 기능이니 신입 초짜인 너는 곧 이녀석들 정비 프로그래밍에 동원될거야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그러니 친하게 지내란 말이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>얼빵한 네가 나를 또 귀찮게 할까봐 걱정이지만 어쩔 수 없네</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오랜만에 들어온 사수니까 예의와 정성을 다하는 수밖에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안드로이드가 너를 정확히 따라다니는지 확인하고 싶으면 녀석들의 배에 있는 화면을 보면 된다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>왜 뚱한 표정이냐고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그야 웃는 것보다 더 귀엽잖아</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>! (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>…생략…</t>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>천장 구석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>통통한 거미집이 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거미는 보이지 않는다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꺼져 있는 모니터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">사의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델 컴퓨터 본체와 부속품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전원 버튼이 도드라진다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눌러볼까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예</t>
     </r>
     <r>
       <rPr>
@@ -812,6 +539,67 @@
   </si>
   <si>
     <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아니오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전원이 들어오지 않는다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>[</t>
     </r>
     <r>
@@ -822,7 +610,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>천장 구석</t>
+      <t>변색된 보드판</t>
     </r>
     <r>
       <rPr>
@@ -835,43 +623,179 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>통통한 거미집이 있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>거미는 보이지 않는다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+  </si>
+  <si>
+    <r>
+      <t>싸구려 합성목재로 만들어진 보드판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>핀촉을 꼽아 메모지를 고정하는 용도로 쓰인 것 같다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연필로 쓰여져 반쯤 알아보기 힘든 메모들과 사진들이 걸려 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인하시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>북극항로 표시사진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>회잿빛 지구 그림 위로 빙하면적이 거의 없는 북극과 구름으로 뒤덮인 남극이 점선으로 빼곡이 이어져 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가운데 진한 중심선에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유라시아 북극항로 개척지점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이라고 쓰여 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
     </r>
   </si>
   <si>
@@ -886,7 +810,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>꺼져 있는 모니터</t>
+      <t>미세먼지 입자 연구현황 사진</t>
     </r>
     <r>
       <rPr>
@@ -902,182 +826,6 @@
   </si>
   <si>
     <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">사의 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모델 컴퓨터 본체와 부속품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전원 버튼이 도드라진다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>눌러볼까</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아니오</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전원이 들어오지 않는다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.”</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>[</t>
     </r>
     <r>
@@ -1088,7 +836,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>변색된 보드판</t>
+      <t>타워개발현황</t>
     </r>
     <r>
       <rPr>
@@ -1101,358 +849,6 @@
       </rPr>
       <t>]</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>싸구려 합성목재로 만들어진 보드판</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>핀촉을 꼽아 메모지를 고정하는 용도로 쓰인 것 같다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연필로 쓰여져 반쯤 알아보기 힘든 메모들과 사진들이 걸려 있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인하시겠습니까</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>북극항로 표시사진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>회잿빛 지구 그림 위로 빙하면적이 거의 없는 북극과 구름으로 뒤덮인 남극이 점선으로 빼곡이 이어져 있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">가운데 진한 중심선에 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유라시아 북극항로 개척지점</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이라고 쓰여 있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미세먼지 입자 연구현황 사진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">사진 끝 부분에 누군가 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미세먼지 입자 연구현황</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 2051.04.13.’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이라고 써놓았다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다른 필체의 낙서가 있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. ‘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초미세</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 319, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보통</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="한컴바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타워개발현황</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>신문 기사 일부를 스크랩해 보관한 것 같다.
-	‘한때 수없이 많이 이어진 다툼과 파괴행위에서도 온전한 형태를 유지하고 있는 인간의 건물에 새로운 안개제거장치를 설치한다는 속보입니다. 인류의 사활이 달린 마지막 기회라고 할 수 있는 이 영광스러운 업무를 맡은 칼림데 말레스크로쟈 박사는 60여년간 오염된 대기를 정화하기 위한 연구를 지속해온 권위자입니다. 그는 과연 이 기회로 우리의 세계 속에서 삭막한 대기를 몰아낼 수 있을까요? 전 중화인민공화국 군용 안드로이드 제조설립법인 ㈜샨샤의 대표이사 씬 샨샤룽은 인터뷰에서 그의 과업에 자신만만하게 유감을 표했습니다. “지금까지 이 끔찍한 안개를 제거하기 위해 인류가 희생한 자본과 생명은 얼마나 됩니까. 이번이 마지막입니다. 이 과업이 실패하게 되면 우리는 다시는 돌이킬 수 없게 됩니다. 그가 부디 알아주었으면 좋겠군요. 위험성이 큰 안개제거장치가 아니라 다른 방도를 찾아야지만 인류는 다시 부흥할 수 있습니다.” (…생략…).’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1929,12 +1325,533 @@
     <t>확인한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">사진 끝 부분에 누군가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미세먼지 입자 연구현황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2051.04.13.’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이라고 써놓았다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른 필체의 낙서가 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초미세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 319, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.’</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘한때 수없이 많이 이어진 다툼과 파괴행위에서도 온전한 형태를 유지하고 있는 인간의 건물에 새로운 안개제거장치를 설치한다는 속보입니다. 인류의 사활이 달린 마지막 기회라고 할 수 있는 이 영광스러운 업무를 맡은 칼림데 말레스크로쟈 박사는  (…생략…).’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">내가 이 짓을 한지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년이나 지났는데 이제 겨우 들어온 신입 녀석이 뭘 알겠다고 설치는지 모르겠다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘 들어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Mr. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말렉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">너도 잘 알테지만 연구소는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개의 층으로 구성되어 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지하로 갈수록 파고드는 구조지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사사건건 은밀함이 컨셉인 우리 초대 연구실장님께서 설계한거니 나한테 묻지 말도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">아무튼 지하 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>층의 실험실을 제외하고 모든 복도에는 우리의 귀여운 안드로이드들이 배치되어 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밖의 무서운 킬러로봇들과 다르게 얘네가 할 줄 아는건 사실 별 거 없어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그냥 적당히 사람을 따라다니지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라다니다가 네가 만약 목이 마르다 싶으면 물 한잔 건네주고…뭐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이것뿐이야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아주 간단한 기능이니 신입 초짜인 너는 곧 이녀석들 정비 프로그래밍에 동원될거야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그러니 친하게 지내란 말이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>얼빵한 네가 나를 또 귀찮게 할까봐 걱정이지만 어쩔 수 없네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오랜만에 들어온 사수니까 예의와 정성을 다하는 수밖에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="한컴바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>…생략…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2337,13 +2254,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2357,7 +2274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="27">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2365,7 +2282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="346.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="346.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2373,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2381,7 +2298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2389,7 +2306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="39">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2397,7 +2314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="174" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="174">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2405,7 +2322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="27">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2413,7 +2330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="39">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2421,7 +2338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="409.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2429,7 +2346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="27">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2437,7 +2354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="330" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="330">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2445,7 +2362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="27">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2453,7 +2370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="51">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2461,240 +2378,240 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="409.5">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="63" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="63">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="102" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="103.5">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="39" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="39">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.5">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="222" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="222">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="25.5">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="222" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="234">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="39" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="39">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="154.5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="168">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="409.5">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="247.5">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="247.5">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="270" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="294">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="336" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="408">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="196.5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="208.5">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="D45" s="5"/>
     </row>
   </sheetData>
